--- a/biology/Zoologie/Cajetan_von_Felder/Cajetan_von_Felder.xlsx
+++ b/biology/Zoologie/Cajetan_von_Felder/Cajetan_von_Felder.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cajetan Freiherr von Felder[Notes 1], né le 19 septembre 1814 à Vienne et mort le 30 novembre 1894 dans cette même ville, est un juriste et un entomologiste autrichien, spécialiste des lépidoptères. Homme politique d'idéologie libérale, il fut bourgmestre de Vienne de 1868 à 1878, participant à l'amélioration des infrastructures de la capitale impériale et ordonnant de nouvelles constructions. 
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Felder est devenu orphelin dans ses jeunes années : il perd sa mère à l'âge de huit ans et son père à l'âge de douze ans. Il a un frère, Carl, et une sœur, Amalie. Il poursuit ses études à la pension du lycée classique des bénédictins de l'abbaye de Seitenstetten, puis au lycée de Brünn où enseigne son oncle maternel et tuteur, Franz Zrza. Ensuite, il étudie le droit à l'université de Vienne de 1834 à 1838. Il s'intéresse depuis son jeune âge à la littérature des auteurs classiques de l'Antiquité, aux langues étrangères et aux sciences naturelles. Il fait un grand tour de l'Europe à pied à travers la Suisse, la Hollande, l'Angleterre, l'Écosse, puis l'Irlande, la Belgique, la France, l'Espagne et enfin la Sicile.
 En 1838-1840, il travaille auprès du bourgmestre de la ville de Brünn et ensuite pendant sept ans en tant que Konzipient auprès de l'avocat viennois Anton Wandratsch. Il est promu au titre de doctor juris de l'université de Vienne en 1841 et épouse le 15 mai de cette année Josefine Sowa, fille d'un médecin de Wischau. Il passe son examen d'avocat en février 1848 auprès de la cour d'appel de Vienne.
@@ -549,9 +563,11 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1865 : avec Rudolf Felder (1842-1871), Reise der österreichischen Fregatte Novara um die Erde in den Jahren 1857, 1858, 1859 unter den Behelfen des Commodore B. von Wüllkerstorf-Urbair. Zoologischer Theil. Zweiter Band. Zweite Abtheilung: « Lepidoptera. » Wien, Carl Gerold’s Sohn, pp. [2] + 137–378, pls. 22–47.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1865 : avec Rudolf Felder (1842-1871), Reise der österreichischen Fregatte Novara um die Erde in den Jahren 1857, 1858, 1859 unter den Behelfen des Commodore B. von Wüllkerstorf-Urbair. Zoologischer Theil. Zweiter Band. Zweite Abtheilung: « Lepidoptera. » Wien, Carl Gerold’s Sohn, pp.  + 137–378, pls. 22–47.
 1964 : Erinnerungen eines Wiener Bürgermeisters [Souvenirs d'un maire de Vienne], Forum-Verlag, édition présentée par Felix Czeike, Vienne</t>
         </is>
       </c>
